--- a/Results Example.xlsx
+++ b/Results Example.xlsx
@@ -591,548 +591,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Comparativa</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" baseline="0%"/>
-              <a:t> resultado real y calculado</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FinalNnetOut!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> OBJETIVO</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>FinalNnetOut!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>39889</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41224</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43953</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47557</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49489</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>53197</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55263</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57708</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59567</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>62850</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65575</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66447</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65132</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>68608</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>71749</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>72205</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76393</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>81176</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>83390</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>93286</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>94465</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>99597</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>103302</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>105988</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>104143</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>106839</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>103274</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>95815</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>97576</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>93238</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0AB-40BE-BEAA-B77D60FC78AA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FinalNnetOut!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> RESULTADO</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>FinalNnetOut!$B$2:$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>39876.776720000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41151.986629999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44185.199760000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47364.137560000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49645.993289999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>53117.116679999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55245.16633</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57743.339720000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59426.309910000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>62875.677380000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65691.999360000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66327.253400000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65142.361649999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>68731.997289999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>71624.762879999995</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>72208.310329999993</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76437.573869999993</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>81163.365619999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>83424.071240000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89021.555670000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>93287.353499999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>94468.043510000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>99478.071160000007</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>103432.48337</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>105958.52454</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>105583.39697</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>106643.15208</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>103779.54601000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>98061.210080000004</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>96309.988419999994</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>94407.820399999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B0AB-40BE-BEAA-B77D60FC78AA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="339238456"/>
-        <c:axId val="339236488"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="339238456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15%"/>
-                <a:lumOff val="85%"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="339236488"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="339236488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15%"/>
-                  <a:lumOff val="85%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="339238456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15%"/>
-          <a:lumOff val="85%"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1467,7 +925,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2112,6 +1570,523 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FinalNnetOut!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> OBJETIVO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>FinalNnetOut!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>39889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49489</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57708</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59567</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62850</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65575</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66447</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71749</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72205</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76393</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81176</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83390</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89038</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>93286</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94465</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>103302</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>105988</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>104143</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>106839</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>103274</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95815</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>97576</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>93238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68C4-4B16-9EB6-C3CE45F73922}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FinalNnetOut!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> RESULTADO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>FinalNnetOut!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>39876.776720000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41151.986629999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44185.199760000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47364.137560000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49645.993289999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53117.116679999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55245.16633</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57743.339720000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59426.309910000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62875.677380000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65691.999360000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66327.253400000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65142.361649999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68731.997289999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71624.762879999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72208.310329999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76437.573869999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81163.365619999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83424.071240000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89021.555670000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>93287.353499999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94468.043510000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99478.071160000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>103432.48337</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>105958.52454</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105583.39697</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>106643.15208</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>103779.54601000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>98061.210080000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96309.988419999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>94407.820399999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68C4-4B16-9EB6-C3CE45F73922}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="420760136"/>
+        <c:axId val="420757184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="420760136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420757184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="420757184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420760136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2233,7 +2208,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2341,6 +2316,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2351,6 +2331,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2382,6 +2367,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2736,7 +2724,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2844,11 +2832,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2859,11 +2842,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2895,9 +2873,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3252,7 +3227,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3360,6 +3335,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3370,6 +3350,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3401,6 +3386,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3756,36 +3744,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
-          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -3810,7 +3768,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
-          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3832,6 +3790,36 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4115,7 +4103,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
